--- a/inst/extdata/intro_debrief.xlsx
+++ b/inst/extdata/intro_debrief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/ClarePBETBattery2024/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E63C8AC-7C1F-E94E-9A99-8CC45DEEDC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB0A7B1-0BA6-CC4F-8F52-31D38B2900F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
   </bookViews>
@@ -116,16 +116,16 @@
     <t>consent_5</t>
   </si>
   <si>
+    <t>&lt;h2&gt;Debrief&lt;/h2&gt;&lt;p&gt;Please &lt;a href="https://musicassessr.com/assets/suzuki-2024/Debrief.pdf", target="_blank"&gt;click here&lt;/a&gt; to read the debrief form and feel free to keep this for reference.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;h2&gt;Welcome!&lt;/h2&gt;&lt;p&gt;&lt;strong&gt;Study title: Understanding how we remember melodies.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Researcher: &lt;/strong&gt; Clare Raybould (crayb001@gold.ac.uk)&lt;/p&gt;
 &lt;p&gt;You are being invited to take part in a MSc student's research study. Before you decide, it is important for you to understand why the research is being done and what it will involve. Please take time to read the information on the links below carefully and discuss it with others if you wish. Ask us if there is anything that is not clear or if you would like more information. Take time to decide whether or not you wish to take part. &lt;/p&gt; &lt;p&gt;You need to be comfortable playing in the following keys:&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Violin&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;G, D, A, F, Bb major and their relative minors&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Viola/Cello&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;C, G, D, Bb, Eb major and their relative minors&lt;/p&gt;
-&lt;p&gt;Thank you for reading this.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Information Sheet: &lt;/strong&gt;&lt;a href="https://musicassessr.com/assets/suzuki-2024/InformationSheet.pdff", target="_blank"&gt;Click here&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;GDPR Notice: &lt;/strong&gt;&lt;a href="https://musicassessr.com/assets/suzuki-2024/GDPR.pdf", target="_blank"&gt;Click here&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Debrief&lt;/h2&gt;&lt;p&gt;Please &lt;a href="https://musicassessr.com/assets/suzuki-2024/Debrief.pdf", target="_blank"&gt;click here&lt;/a&gt; to read the debrief form and feel free to keep this for reference.&lt;/p&gt;</t>
+&lt;p&gt;Thank you for reading this.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Information Sheet: &lt;/strong&gt;&lt;a href="https://musicassessr.com/assets/suzuki-2024/InformationSheet.pdf", target="_blank"&gt;Click here&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;GDPR Notice: &lt;/strong&gt;&lt;a href="https://musicassessr.com/assets/suzuki-2024/GDPR.pdf", target="_blank"&gt;Click here&lt;/a&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -687,7 +687,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>8</v>

--- a/inst/extdata/intro_debrief.xlsx
+++ b/inst/extdata/intro_debrief.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/ClarePBETBattery2024/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB0A7B1-0BA6-CC4F-8F52-31D38B2900F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A932CE4A-93B9-EE41-8315-344250AA552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
+    <workbookView xWindow="0" yWindow="3480" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>page_type</t>
   </si>
@@ -95,9 +95,6 @@
     <t>&lt;p&gt;Do you agree to take part in this study?&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Are you are over 18 years of age?&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>NAFC_page</t>
   </si>
   <si>
@@ -113,19 +110,61 @@
     <t>consent_4</t>
   </si>
   <si>
-    <t>consent_5</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Debrief&lt;/h2&gt;&lt;p&gt;Please &lt;a href="https://musicassessr.com/assets/suzuki-2024/Debrief.pdf", target="_blank"&gt;click here&lt;/a&gt; to read the debrief form and feel free to keep this for reference.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Welcome!&lt;/h2&gt;&lt;p&gt;&lt;strong&gt;Study title: Understanding how we remember melodies.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Researcher: &lt;/strong&gt; Clare Raybould (crayb001@gold.ac.uk)&lt;/p&gt;
+    <t>consent_0</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Debrief&lt;/h2&gt;&lt;p&gt;Please &lt;a href="assets/docs/Debrief.pdf", target="_blank"&gt;click here&lt;/a&gt; to read the debrief form and feel free to keep this for reference.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>consent_1_under_18</t>
+  </si>
+  <si>
+    <t>consent_2_under_18</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Do you understand that your child will not be referred to by name in any report concerning the study?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>consent_3_under_18</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Do you understand that your child is free to withdraw from the study: &lt;ul&gt; &lt;li&gt; at any time &lt;/li&gt; &lt;li&gt;without having to give a reason for withdrawing?&lt;/li&gt; &lt;li&gt;without any negative consequences&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>consent_4_under_18</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Do you agree to your child taking part in this study?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>consent_5_under_18</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Are you aware that you will be able to withdraw your child’s data after completing the study by creating a unique ID?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Welcome!&lt;/h2&gt;&lt;p&gt;&lt;strong&gt;Study title: An Examination of Relationships Between Musical Memory, Playing by Ear, and Levels of Ear Training.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Researcher: &lt;/strong&gt; Clare Raybould (crayb001@gold.ac.uk)&lt;/p&gt;
 &lt;p&gt;You are being invited to take part in a MSc student's research study. Before you decide, it is important for you to understand why the research is being done and what it will involve. Please take time to read the information on the links below carefully and discuss it with others if you wish. Ask us if there is anything that is not clear or if you would like more information. Take time to decide whether or not you wish to take part. &lt;/p&gt; &lt;p&gt;You need to be comfortable playing in the following keys:&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Violin&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;G, D, A, F, Bb major and their relative minors&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Viola/Cello&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;C, G, D, Bb, Eb major and their relative minors&lt;/p&gt;
-&lt;p&gt;Thank you for reading this.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Information Sheet: &lt;/strong&gt;&lt;a href="https://musicassessr.com/assets/suzuki-2024/InformationSheet.pdf", target="_blank"&gt;Click here&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;GDPR Notice: &lt;/strong&gt;&lt;a href="https://musicassessr.com/assets/suzuki-2024/GDPR.pdf", target="_blank"&gt;Click here&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;Thank you for reading this.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Information Sheet: &lt;/strong&gt;&lt;a href="https://musicassessr.com/assets/pbet-strings-2024/InformationSheet.pdf", target="_blank"&gt;Click here&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;GDPR Notice: &lt;/strong&gt;&lt;a href="https://musicassessr.com/assets/pbet-strings-2024/GDPR.pdf", target="_blank"&gt;Click here&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>information_sheet_under_18</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Welcome!&lt;/h2&gt;&lt;p&gt;&lt;strong&gt;Study title: An Examination of Relationships Between Musical Memory, Playing by Ear, and Levels of Ear Training.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Researcher: &lt;/strong&gt; Clare Raybould (crayb001@gold.ac.uk)&lt;/p&gt;
+&lt;p&gt;You are being invited to take part in a MSc student's research study. Before you decide, it is important for you to understand why the research is being done and what it will involve. Please take time to read the information on the links below carefully and discuss it with others if you wish. Ask us if there is anything that is not clear or if you would like more information. Take time to decide whether or not you wish to take part. &lt;/p&gt; &lt;p&gt;You need to be comfortable playing in the following keys:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Violin&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;G, D, A, F, Bb major and their relative minors&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Viola/Cello&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;C, G, D, Bb, Eb major and their relative minors&lt;/p&gt;
+&lt;p&gt;Thank you for reading this.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Information Sheet: &lt;/strong&gt;&lt;a href="https://musicassessr.com/assets/pbet-strings-2024/InformationSheet_Under18s.pdf", target="_blank"&gt;Click here&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;GDPR Notice: &lt;/strong&gt;&lt;a href="https://musicassessr.com/assets/pbet-strings-2024/GDPR.pdf", target="_blank"&gt;Click here&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Are you 18 years of age or older?&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -504,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF35A9C-231E-5348-9328-9A574E33D2C7}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="102" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -573,102 +612,122 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
+      <c r="A3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
+      <c r="A4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
+      <c r="A5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
+      <c r="A6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>26</v>
+      <c r="A7" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -687,11 +746,150 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/intro_debrief.xlsx
+++ b/inst/extdata/intro_debrief.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/ClarePBETBattery2024/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A932CE4A-93B9-EE41-8315-344250AA552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409529CA-C37E-5E40-8499-DA6BF38F82E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3480" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
+    <workbookView xWindow="0" yWindow="2100" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>page_type</t>
   </si>
@@ -122,25 +122,13 @@
     <t>consent_2_under_18</t>
   </si>
   <si>
-    <t>&lt;p&gt;Do you understand that your child will not be referred to by name in any report concerning the study?&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>consent_3_under_18</t>
   </si>
   <si>
-    <t>&lt;p&gt;Do you understand that your child is free to withdraw from the study: &lt;ul&gt; &lt;li&gt; at any time &lt;/li&gt; &lt;li&gt;without having to give a reason for withdrawing?&lt;/li&gt; &lt;li&gt;without any negative consequences&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>consent_4_under_18</t>
   </si>
   <si>
-    <t>&lt;p&gt;Do you agree to your child taking part in this study?&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>consent_5_under_18</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Are you aware that you will be able to withdraw your child’s data after completing the study by creating a unique ID?&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;h2&gt;Welcome!&lt;/h2&gt;&lt;p&gt;&lt;strong&gt;Study title: An Examination of Relationships Between Musical Memory, Playing by Ear, and Levels of Ear Training.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Researcher: &lt;/strong&gt; Clare Raybould (crayb001@gold.ac.uk)&lt;/p&gt;
@@ -165,6 +153,21 @@
   </si>
   <si>
     <t>&lt;p&gt;Are you 18 years of age or older?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Must be answered by parent/guardian&lt;/h3&gt;&lt;p&gt;Do you understand that your child will not be referred to by name in any report concerning the study?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Must be answered by parent/guardian&lt;/h3&gt;&lt;p&gt;Have you read the Research Participant Information Sheet?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Must be answered by parent/guardian&lt;/h3&gt;&lt;p&gt;Do you understand that your child is free to withdraw from the study: &lt;ul&gt; &lt;li&gt; at any time &lt;/li&gt; &lt;li&gt;without having to give a reason for withdrawing?&lt;/li&gt; &lt;li&gt;without any negative consequences&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Must be answered by parent/guardian&lt;/h3&gt;&lt;p&gt;Do you agree to your child taking part in this study?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Must be answered by parent/guardian&lt;/h3&gt;&lt;p&gt;Are you aware that you will be able to withdraw your child’s data after completing the study by creating a unique ID?&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G2" zoomScale="102" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -722,7 +725,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>14</v>
@@ -768,7 +771,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>14</v>
@@ -792,7 +795,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>14</v>
@@ -803,7 +806,7 @@
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -816,7 +819,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>14</v>
@@ -827,7 +830,7 @@
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
@@ -840,7 +843,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>14</v>
@@ -851,7 +854,7 @@
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -864,7 +867,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>14</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="14" spans="1:10" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -884,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>

--- a/inst/extdata/intro_debrief.xlsx
+++ b/inst/extdata/intro_debrief.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/ClarePBETBattery2024/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409529CA-C37E-5E40-8499-DA6BF38F82E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E30BEE-381D-B74B-83B1-34F18F95C28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2100" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
+    <workbookView xWindow="780" yWindow="1980" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,19 +155,19 @@
     <t>&lt;p&gt;Are you 18 years of age or older?&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Must be answered by parent/guardian&lt;/h3&gt;&lt;p&gt;Do you understand that your child will not be referred to by name in any report concerning the study?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Must be answered by parent/guardian&lt;/h3&gt;&lt;p&gt;Have you read the Research Participant Information Sheet?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Must be answered by parent/guardian&lt;/h3&gt;&lt;p&gt;Do you understand that your child is free to withdraw from the study: &lt;ul&gt; &lt;li&gt; at any time &lt;/li&gt; &lt;li&gt;without having to give a reason for withdrawing?&lt;/li&gt; &lt;li&gt;without any negative consequences&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Must be answered by parent/guardian&lt;/h3&gt;&lt;p&gt;Do you agree to your child taking part in this study?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Must be answered by parent/guardian&lt;/h3&gt;&lt;p&gt;Are you aware that you will be able to withdraw your child’s data after completing the study by creating a unique ID?&lt;/p&gt;</t>
+    <t>&lt;p&gt;As a participant, have you read the Research Participant Information Sheet?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;As a participant, do you agree to taking part in this study?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;As a participant, are you aware that you will be able to withdraw your data after completing the study by creating a unique ID?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;As a participant, do you understand that you will not be referred to by name in any report concerning the study?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;As a participant, do you understand that you are free to withdraw from the study: &lt;ul&gt; &lt;li&gt; at any time &lt;/li&gt; &lt;li&gt;without having to give a reason for withdrawing?&lt;/li&gt; &lt;li&gt;without any negative consequences&lt;/li&gt;</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF35A9C-231E-5348-9328-9A574E33D2C7}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="102" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>14</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>14</v>
@@ -819,7 +819,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>14</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>14</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>14</v>

--- a/inst/extdata/intro_debrief.xlsx
+++ b/inst/extdata/intro_debrief.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/ClarePBETBattery2024/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E30BEE-381D-B74B-83B1-34F18F95C28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5816F655-A1DD-3148-ACC6-19E4631C0013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1980" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
+    <workbookView xWindow="0" yWindow="1980" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>consent_0</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Debrief&lt;/h2&gt;&lt;p&gt;Please &lt;a href="assets/docs/Debrief.pdf", target="_blank"&gt;click here&lt;/a&gt; to read the debrief form and feel free to keep this for reference.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>consent_1_under_18</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>&lt;p&gt;As a participant, do you understand that you are free to withdraw from the study: &lt;ul&gt; &lt;li&gt; at any time &lt;/li&gt; &lt;li&gt;without having to give a reason for withdrawing?&lt;/li&gt; &lt;li&gt;without any negative consequences&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Debrief&lt;/h2&gt;&lt;p&gt;Please &lt;a href="https://musicassessr.com/assets/pbet-strings-2024/Debrief.pdf", target="_blank"&gt;click here&lt;/a&gt; to read the debrief form and feel free to keep this for reference.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF35A9C-231E-5348-9328-9A574E33D2C7}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="102" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>14</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>14</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>14</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -819,7 +819,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>14</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>14</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>14</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="14" spans="1:10" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
